--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -5,23 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srishtisehgal/Desktop/lfts hackathon/train-file/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srishtisehgal/Desktop/lfts hackathon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62EB03C-AC1E-2E4A-9FCE-EF38F2EED874}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D61244B-920A-4644-88BC-A35B82812BAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12840" yWindow="460" windowWidth="12760" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="97">
   <si>
     <t>ltv</t>
   </si>
@@ -298,6 +304,30 @@
   </si>
   <si>
     <t>AT END</t>
+  </si>
+  <si>
+    <t>INT- MON</t>
+  </si>
+  <si>
+    <t>INT MON</t>
+  </si>
+  <si>
+    <t>Flags except disbursal_days and age (days, yrs)</t>
+  </si>
+  <si>
+    <t>age = 37</t>
+  </si>
+  <si>
+    <t>days_disbursal = 38</t>
+  </si>
+  <si>
+    <t>TARGET =36</t>
+  </si>
+  <si>
+    <t>salary =39 flag</t>
+  </si>
+  <si>
+    <t>eself employed = 40 flag</t>
   </si>
 </sst>
 </file>
@@ -634,20 +664,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="75.5" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
@@ -658,7 +688,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -672,7 +702,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
@@ -685,8 +715,11 @@
       <c r="D3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -696,8 +729,11 @@
       <c r="D4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -707,8 +743,11 @@
       <c r="D5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -718,8 +757,11 @@
       <c r="D6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -729,8 +771,11 @@
       <c r="D7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -740,8 +785,11 @@
       <c r="D8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -751,8 +799,11 @@
       <c r="D9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -762,8 +813,11 @@
       <c r="D10" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -774,7 +828,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
@@ -785,7 +839,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -796,7 +850,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -806,8 +860,11 @@
       <c r="D14" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -817,8 +874,11 @@
       <c r="D15" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -828,8 +888,11 @@
       <c r="D16" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -839,8 +902,11 @@
       <c r="D17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -850,8 +916,11 @@
       <c r="D18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -861,8 +930,11 @@
       <c r="D19" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -872,8 +944,11 @@
       <c r="D20" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -883,8 +958,11 @@
       <c r="D21" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -894,8 +972,11 @@
       <c r="D22" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -905,8 +986,11 @@
       <c r="D23" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -919,8 +1003,11 @@
       <c r="D24" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -931,8 +1018,11 @@
       <c r="D25" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -943,8 +1033,11 @@
       <c r="D26" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
@@ -955,8 +1048,11 @@
       <c r="D27" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
@@ -967,8 +1063,11 @@
       <c r="D28" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -979,8 +1078,11 @@
       <c r="D29" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
@@ -993,8 +1095,11 @@
       <c r="D30" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -1005,8 +1110,11 @@
       <c r="D31" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -1017,8 +1125,11 @@
       <c r="D32" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
@@ -1029,8 +1140,11 @@
       <c r="D33" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -1041,8 +1155,11 @@
       <c r="D34" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
@@ -1053,8 +1170,11 @@
       <c r="D35" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
@@ -1064,8 +1184,11 @@
       <c r="D36" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
@@ -1075,8 +1198,11 @@
       <c r="D37" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
@@ -1086,8 +1212,11 @@
       <c r="D38" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
@@ -1097,8 +1226,11 @@
       <c r="D39" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
@@ -1108,8 +1240,14 @@
       <c r="D40" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
@@ -1119,8 +1257,14 @@
       <c r="D41" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
@@ -1129,6 +1273,34 @@
       </c>
       <c r="D42" t="s">
         <v>82</v>
+      </c>
+      <c r="E42">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
